--- a/datas/newApiCase.xlsx
+++ b/datas/newApiCase.xlsx
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>{"mobile_phone":"13262664317","pwd":"123456789"}</t>
+          <t>{"mobile_phone":"#user_phone#","pwd":"123456789"}</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="H16" s="7" t="inlineStr">
         <is>
-          <t>{"code": 0, "msg": "OK", "data": {"id": 11056454, "reg_name": "bty", "mobile_phone": "13306218739"}, "copyright": "Copyright 柠檬班 © 2017-2019 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
+          <t>{"code": 0, "msg": "OK", "data": {"id": 11056484, "reg_name": "bty", "mobile_phone": "13281354706"}, "copyright": "Copyright 柠檬班 © 2017-2019 湖南省零檬信息技术有限公司 All Rights Reserved"}</t>
         </is>
       </c>
       <c r="I16" s="7" t="inlineStr">
